--- a/results/McNemar_data.xlsx
+++ b/results/McNemar_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\year_4\semester_2\Software_project\Discovery2\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82A8E99-5757-4C88-919C-8C787681B6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CE24E1-5DB7-49EB-B123-98EF3AAE72A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="2325" windowWidth="15600" windowHeight="16995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21510" yWindow="900" windowWidth="21900" windowHeight="18225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,12 +421,12 @@
   <dimension ref="A1:D772"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -437,10 +437,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,10 +507,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1221,10 +1221,10 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1375,10 +1375,10 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1473,10 +1473,10 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -1571,10 +1571,10 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -1879,10 +1879,10 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2061,10 +2061,10 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2145,10 +2145,10 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2190,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2201,10 +2201,10 @@
         <v>1</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2453,10 +2453,10 @@
         <v>1</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2481,10 +2481,10 @@
         <v>1</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2495,10 +2495,10 @@
         <v>1</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -2733,10 +2733,10 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -2747,10 +2747,10 @@
         <v>1</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -2817,10 +2817,10 @@
         <v>1</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -2845,10 +2845,10 @@
         <v>1</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -2898,10 +2898,10 @@
         <v>1</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -2912,10 +2912,10 @@
         <v>1</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -2926,13 +2926,13 @@
         <v>1</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -2954,10 +2954,10 @@
         <v>1</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -2968,13 +2968,13 @@
         <v>1</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -2982,13 +2982,13 @@
         <v>1</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -2996,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>1</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3024,13 +3024,13 @@
         <v>1</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3038,13 +3038,13 @@
         <v>1</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187">
         <v>0</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3052,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3069,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3111,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3209,10 +3209,10 @@
         <v>0</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -3223,10 +3223,10 @@
         <v>0</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -3265,10 +3265,10 @@
         <v>0</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -3279,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -3293,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -3307,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -3321,10 +3321,10 @@
         <v>0</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -3419,10 +3419,10 @@
         <v>0</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -3797,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -3965,10 +3965,10 @@
         <v>0</v>
       </c>
       <c r="C253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -4063,10 +4063,10 @@
         <v>0</v>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -4105,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="C263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -4189,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="C269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -4231,10 +4231,10 @@
         <v>0</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -4273,10 +4273,10 @@
         <v>0</v>
       </c>
       <c r="C275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -4315,10 +4315,10 @@
         <v>0</v>
       </c>
       <c r="C278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -4371,10 +4371,10 @@
         <v>0</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="D290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="C337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D337">
         <v>0</v>
@@ -5197,10 +5197,10 @@
         <v>0</v>
       </c>
       <c r="C341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -5225,10 +5225,10 @@
         <v>0</v>
       </c>
       <c r="C343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -5631,10 +5631,10 @@
         <v>0</v>
       </c>
       <c r="C372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="D380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="D414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -6387,10 +6387,10 @@
         <v>0</v>
       </c>
       <c r="C426">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -6457,10 +6457,10 @@
         <v>0</v>
       </c>
       <c r="C431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="D440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="D443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -6639,10 +6639,10 @@
         <v>0</v>
       </c>
       <c r="C444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="D451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -6821,10 +6821,10 @@
         <v>0</v>
       </c>
       <c r="C457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -7101,10 +7101,10 @@
         <v>0</v>
       </c>
       <c r="C477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="C509">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="B512">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C512">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="B513">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="B514">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="B515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -7644,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="B516">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="B517">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -7672,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="B518">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C518">
         <v>0</v>
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="B519">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C519">
         <v>0</v>
@@ -7700,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="B520">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -7714,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="B521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521">
         <v>0</v>
@@ -7728,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="B522">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C522">
         <v>0</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="B523">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C523">
         <v>0</v>
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="B524">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="B525">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C525">
         <v>0</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="B526">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C526">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="B527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C527">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="B528">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C528">
         <v>0</v>
@@ -7826,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="B529">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C529">
         <v>0</v>
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="C536">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D536">
         <v>0</v>
@@ -8375,10 +8375,10 @@
         <v>0</v>
       </c>
       <c r="C568">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -8851,10 +8851,10 @@
         <v>0</v>
       </c>
       <c r="C602">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="D603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="C618">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D618">
         <v>0</v>
@@ -9117,10 +9117,10 @@
         <v>0</v>
       </c>
       <c r="C621">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="C630">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
@@ -9705,10 +9705,10 @@
         <v>0</v>
       </c>
       <c r="C663">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
@@ -9789,10 +9789,10 @@
         <v>0</v>
       </c>
       <c r="C669">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
@@ -9820,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="D671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
@@ -10055,10 +10055,10 @@
         <v>0</v>
       </c>
       <c r="C688">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
@@ -10489,10 +10489,10 @@
         <v>0</v>
       </c>
       <c r="C719">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
@@ -10741,10 +10741,10 @@
         <v>0</v>
       </c>
       <c r="C737">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
@@ -10783,10 +10783,10 @@
         <v>0</v>
       </c>
       <c r="C740">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
